--- a/fantasy/newfolder/dailyGamelog.xlsx
+++ b/fantasy/newfolder/dailyGamelog.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="DEC. 27, 2022" sheetId="1" r:id="rId1"/>
+    <sheet name="2022-12-30" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>TEAM_ID</t>
   </si>
@@ -95,6 +95,201 @@
   </si>
   <si>
     <t>PLUS_MINUS</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>NOP</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>TOR</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>WAS</t>
+  </si>
+  <si>
+    <t>GSW</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Utah Jazz</t>
+  </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Minnesota Timberwolves</t>
+  </si>
+  <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Orlando Magic</t>
+  </si>
+  <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Toronto Raptors</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
+  </si>
+  <si>
+    <t>Washington Wizards</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>0022200536</t>
+  </si>
+  <si>
+    <t>0022200537</t>
+  </si>
+  <si>
+    <t>0022200535</t>
+  </si>
+  <si>
+    <t>0022200533</t>
+  </si>
+  <si>
+    <t>0022200534</t>
+  </si>
+  <si>
+    <t>0022200529</t>
+  </si>
+  <si>
+    <t>0022200532</t>
+  </si>
+  <si>
+    <t>0022200531</t>
+  </si>
+  <si>
+    <t>0022200530</t>
+  </si>
+  <si>
+    <t>2022-12-30</t>
+  </si>
+  <si>
+    <t>POR @ GSW</t>
+  </si>
+  <si>
+    <t>SAC vs. UTA</t>
+  </si>
+  <si>
+    <t>UTA @ SAC</t>
+  </si>
+  <si>
+    <t>MIA @ DEN</t>
+  </si>
+  <si>
+    <t>DEN vs. MIA</t>
+  </si>
+  <si>
+    <t>MIN @ MIL</t>
+  </si>
+  <si>
+    <t>PHI @ NOP</t>
+  </si>
+  <si>
+    <t>NOP vs. PHI</t>
+  </si>
+  <si>
+    <t>ORL vs. WAS</t>
+  </si>
+  <si>
+    <t>MIL vs. MIN</t>
+  </si>
+  <si>
+    <t>CHI vs. DET</t>
+  </si>
+  <si>
+    <t>DET @ CHI</t>
+  </si>
+  <si>
+    <t>TOR vs. PHX</t>
+  </si>
+  <si>
+    <t>PHX @ TOR</t>
+  </si>
+  <si>
+    <t>LAL @ ATL</t>
+  </si>
+  <si>
+    <t>ATL vs. LAL</t>
+  </si>
+  <si>
+    <t>WAS @ ORL</t>
+  </si>
+  <si>
+    <t>GSW vs. POR</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
 </sst>
 </file>
@@ -452,13 +647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:AB1"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:28">
+    <row r="1" spans="1:28">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,6 +734,1554 @@
       </c>
       <c r="AB1" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" s="1">
+        <v>1056</v>
+      </c>
+      <c r="B2">
+        <v>1610612757</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <v>240</v>
+      </c>
+      <c r="J2">
+        <v>42</v>
+      </c>
+      <c r="K2">
+        <v>91</v>
+      </c>
+      <c r="L2">
+        <v>0.462</v>
+      </c>
+      <c r="M2">
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>0.308</v>
+      </c>
+      <c r="P2">
+        <v>16</v>
+      </c>
+      <c r="Q2">
+        <v>23</v>
+      </c>
+      <c r="R2">
+        <v>0.696</v>
+      </c>
+      <c r="S2">
+        <v>17</v>
+      </c>
+      <c r="T2">
+        <v>32</v>
+      </c>
+      <c r="U2">
+        <v>49</v>
+      </c>
+      <c r="V2">
+        <v>22</v>
+      </c>
+      <c r="W2">
+        <v>2</v>
+      </c>
+      <c r="X2">
+        <v>4</v>
+      </c>
+      <c r="Y2">
+        <v>16</v>
+      </c>
+      <c r="Z2">
+        <v>20</v>
+      </c>
+      <c r="AA2">
+        <v>112</v>
+      </c>
+      <c r="AB2">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="A3" s="1">
+        <v>1057</v>
+      </c>
+      <c r="B3">
+        <v>1610612758</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I3">
+        <v>240</v>
+      </c>
+      <c r="J3">
+        <v>50</v>
+      </c>
+      <c r="K3">
+        <v>90</v>
+      </c>
+      <c r="L3">
+        <v>0.556</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>30</v>
+      </c>
+      <c r="O3">
+        <v>0.4</v>
+      </c>
+      <c r="P3">
+        <v>14</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>0.737</v>
+      </c>
+      <c r="S3">
+        <v>10</v>
+      </c>
+      <c r="T3">
+        <v>28</v>
+      </c>
+      <c r="U3">
+        <v>38</v>
+      </c>
+      <c r="V3">
+        <v>32</v>
+      </c>
+      <c r="W3">
+        <v>5</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>15</v>
+      </c>
+      <c r="Z3">
+        <v>21</v>
+      </c>
+      <c r="AA3">
+        <v>126</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" s="1">
+        <v>1058</v>
+      </c>
+      <c r="B4">
+        <v>1610612762</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4">
+        <v>240</v>
+      </c>
+      <c r="J4">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>84</v>
+      </c>
+      <c r="L4">
+        <v>0.548</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>32</v>
+      </c>
+      <c r="O4">
+        <v>0.25</v>
+      </c>
+      <c r="P4">
+        <v>25</v>
+      </c>
+      <c r="Q4">
+        <v>30</v>
+      </c>
+      <c r="R4">
+        <v>0.833</v>
+      </c>
+      <c r="S4">
+        <v>7</v>
+      </c>
+      <c r="T4">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>37</v>
+      </c>
+      <c r="V4">
+        <v>30</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>13</v>
+      </c>
+      <c r="Z4">
+        <v>20</v>
+      </c>
+      <c r="AA4">
+        <v>125</v>
+      </c>
+      <c r="AB4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B5">
+        <v>1610612748</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <v>240</v>
+      </c>
+      <c r="J5">
+        <v>39</v>
+      </c>
+      <c r="K5">
+        <v>87</v>
+      </c>
+      <c r="L5">
+        <v>0.448</v>
+      </c>
+      <c r="M5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>35</v>
+      </c>
+      <c r="O5">
+        <v>0.4</v>
+      </c>
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>30</v>
+      </c>
+      <c r="R5">
+        <v>0.9</v>
+      </c>
+      <c r="S5">
+        <v>11</v>
+      </c>
+      <c r="T5">
+        <v>25</v>
+      </c>
+      <c r="U5">
+        <v>36</v>
+      </c>
+      <c r="V5">
+        <v>21</v>
+      </c>
+      <c r="W5">
+        <v>13</v>
+      </c>
+      <c r="X5">
+        <v>4</v>
+      </c>
+      <c r="Y5">
+        <v>15</v>
+      </c>
+      <c r="Z5">
+        <v>19</v>
+      </c>
+      <c r="AA5">
+        <v>119</v>
+      </c>
+      <c r="AB5">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" s="1">
+        <v>1060</v>
+      </c>
+      <c r="B6">
+        <v>1610612743</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6">
+        <v>240</v>
+      </c>
+      <c r="J6">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+      <c r="L6">
+        <v>0.592</v>
+      </c>
+      <c r="M6">
+        <v>17</v>
+      </c>
+      <c r="N6">
+        <v>28</v>
+      </c>
+      <c r="O6">
+        <v>0.607</v>
+      </c>
+      <c r="P6">
+        <v>17</v>
+      </c>
+      <c r="Q6">
+        <v>22</v>
+      </c>
+      <c r="R6">
+        <v>0.773</v>
+      </c>
+      <c r="S6">
+        <v>5</v>
+      </c>
+      <c r="T6">
+        <v>31</v>
+      </c>
+      <c r="U6">
+        <v>36</v>
+      </c>
+      <c r="V6">
+        <v>34</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>1</v>
+      </c>
+      <c r="Y6">
+        <v>20</v>
+      </c>
+      <c r="Z6">
+        <v>19</v>
+      </c>
+      <c r="AA6">
+        <v>124</v>
+      </c>
+      <c r="AB6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" s="1">
+        <v>1061</v>
+      </c>
+      <c r="B7">
+        <v>1610612750</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7">
+        <v>240</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>92</v>
+      </c>
+      <c r="L7">
+        <v>0.435</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>30</v>
+      </c>
+      <c r="O7">
+        <v>0.267</v>
+      </c>
+      <c r="P7">
+        <v>26</v>
+      </c>
+      <c r="Q7">
+        <v>34</v>
+      </c>
+      <c r="R7">
+        <v>0.765</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>29</v>
+      </c>
+      <c r="U7">
+        <v>36</v>
+      </c>
+      <c r="V7">
+        <v>18</v>
+      </c>
+      <c r="W7">
+        <v>10</v>
+      </c>
+      <c r="X7">
+        <v>5</v>
+      </c>
+      <c r="Y7">
+        <v>8</v>
+      </c>
+      <c r="Z7">
+        <v>28</v>
+      </c>
+      <c r="AA7">
+        <v>114</v>
+      </c>
+      <c r="AB7">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1">
+        <v>1062</v>
+      </c>
+      <c r="B8">
+        <v>1610612755</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8">
+        <v>240</v>
+      </c>
+      <c r="J8">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M8">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>0.412</v>
+      </c>
+      <c r="P8">
+        <v>18</v>
+      </c>
+      <c r="Q8">
+        <v>22</v>
+      </c>
+      <c r="R8">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>26</v>
+      </c>
+      <c r="U8">
+        <v>29</v>
+      </c>
+      <c r="V8">
+        <v>28</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>7</v>
+      </c>
+      <c r="Y8">
+        <v>19</v>
+      </c>
+      <c r="Z8">
+        <v>22</v>
+      </c>
+      <c r="AA8">
+        <v>116</v>
+      </c>
+      <c r="AB8">
+        <v>-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" s="1">
+        <v>1063</v>
+      </c>
+      <c r="B9">
+        <v>1610612740</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9">
+        <v>240</v>
+      </c>
+      <c r="J9">
+        <v>43</v>
+      </c>
+      <c r="K9">
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <v>0.538</v>
+      </c>
+      <c r="M9">
+        <v>15</v>
+      </c>
+      <c r="N9">
+        <v>31</v>
+      </c>
+      <c r="O9">
+        <v>0.484</v>
+      </c>
+      <c r="P9">
+        <v>26</v>
+      </c>
+      <c r="Q9">
+        <v>36</v>
+      </c>
+      <c r="R9">
+        <v>0.722</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>29</v>
+      </c>
+      <c r="U9">
+        <v>36</v>
+      </c>
+      <c r="V9">
+        <v>19</v>
+      </c>
+      <c r="W9">
+        <v>14</v>
+      </c>
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
+        <v>14</v>
+      </c>
+      <c r="Z9">
+        <v>20</v>
+      </c>
+      <c r="AA9">
+        <v>127</v>
+      </c>
+      <c r="AB9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" s="1">
+        <v>1064</v>
+      </c>
+      <c r="B10">
+        <v>1610612753</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>240</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>0.42</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>27</v>
+      </c>
+      <c r="O10">
+        <v>0.185</v>
+      </c>
+      <c r="P10">
+        <v>11</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="R10">
+        <v>0.6879999999999999</v>
+      </c>
+      <c r="S10">
+        <v>8</v>
+      </c>
+      <c r="T10">
+        <v>27</v>
+      </c>
+      <c r="U10">
+        <v>35</v>
+      </c>
+      <c r="V10">
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <v>8</v>
+      </c>
+      <c r="X10">
+        <v>2</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>18</v>
+      </c>
+      <c r="AA10">
+        <v>100</v>
+      </c>
+      <c r="AB10">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" s="1">
+        <v>1065</v>
+      </c>
+      <c r="B11">
+        <v>1610612749</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>240</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>93</v>
+      </c>
+      <c r="L11">
+        <v>0.462</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>39</v>
+      </c>
+      <c r="O11">
+        <v>0.359</v>
+      </c>
+      <c r="P11">
+        <v>23</v>
+      </c>
+      <c r="Q11">
+        <v>33</v>
+      </c>
+      <c r="R11">
+        <v>0.697</v>
+      </c>
+      <c r="S11">
+        <v>20</v>
+      </c>
+      <c r="T11">
+        <v>48</v>
+      </c>
+      <c r="U11">
+        <v>68</v>
+      </c>
+      <c r="V11">
+        <v>25</v>
+      </c>
+      <c r="W11">
+        <v>5</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>21</v>
+      </c>
+      <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>123</v>
+      </c>
+      <c r="AB11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B12">
+        <v>1610612741</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+      <c r="I12">
+        <v>240</v>
+      </c>
+      <c r="J12">
+        <v>53</v>
+      </c>
+      <c r="K12">
+        <v>92</v>
+      </c>
+      <c r="L12">
+        <v>0.576</v>
+      </c>
+      <c r="M12">
+        <v>12</v>
+      </c>
+      <c r="N12">
+        <v>27</v>
+      </c>
+      <c r="O12">
+        <v>0.444</v>
+      </c>
+      <c r="P12">
+        <v>14</v>
+      </c>
+      <c r="Q12">
+        <v>15</v>
+      </c>
+      <c r="R12">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="S12">
+        <v>12</v>
+      </c>
+      <c r="T12">
+        <v>26</v>
+      </c>
+      <c r="U12">
+        <v>38</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+      <c r="W12">
+        <v>10</v>
+      </c>
+      <c r="X12">
+        <v>4</v>
+      </c>
+      <c r="Y12">
+        <v>14</v>
+      </c>
+      <c r="Z12">
+        <v>20</v>
+      </c>
+      <c r="AA12">
+        <v>132</v>
+      </c>
+      <c r="AB12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" s="1">
+        <v>1067</v>
+      </c>
+      <c r="B13">
+        <v>1610612765</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>86</v>
+      </c>
+      <c r="L13">
+        <v>0.477</v>
+      </c>
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>39</v>
+      </c>
+      <c r="O13">
+        <v>0.436</v>
+      </c>
+      <c r="P13">
+        <v>19</v>
+      </c>
+      <c r="Q13">
+        <v>24</v>
+      </c>
+      <c r="R13">
+        <v>0.792</v>
+      </c>
+      <c r="S13">
+        <v>13</v>
+      </c>
+      <c r="T13">
+        <v>22</v>
+      </c>
+      <c r="U13">
+        <v>35</v>
+      </c>
+      <c r="V13">
+        <v>28</v>
+      </c>
+      <c r="W13">
+        <v>8</v>
+      </c>
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>16</v>
+      </c>
+      <c r="Z13">
+        <v>16</v>
+      </c>
+      <c r="AA13">
+        <v>118</v>
+      </c>
+      <c r="AB13">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="1">
+        <v>1068</v>
+      </c>
+      <c r="B14">
+        <v>1610612761</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I14">
+        <v>240</v>
+      </c>
+      <c r="J14">
+        <v>40</v>
+      </c>
+      <c r="K14">
+        <v>81</v>
+      </c>
+      <c r="L14">
+        <v>0.494</v>
+      </c>
+      <c r="M14">
+        <v>11</v>
+      </c>
+      <c r="N14">
+        <v>33</v>
+      </c>
+      <c r="O14">
+        <v>0.333</v>
+      </c>
+      <c r="P14">
+        <v>22</v>
+      </c>
+      <c r="Q14">
+        <v>26</v>
+      </c>
+      <c r="R14">
+        <v>0.846</v>
+      </c>
+      <c r="S14">
+        <v>8</v>
+      </c>
+      <c r="T14">
+        <v>23</v>
+      </c>
+      <c r="U14">
+        <v>31</v>
+      </c>
+      <c r="V14">
+        <v>20</v>
+      </c>
+      <c r="W14">
+        <v>15</v>
+      </c>
+      <c r="X14">
+        <v>3</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14">
+        <v>22</v>
+      </c>
+      <c r="AA14">
+        <v>113</v>
+      </c>
+      <c r="AB14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" s="1">
+        <v>1069</v>
+      </c>
+      <c r="B15">
+        <v>1610612756</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <v>240</v>
+      </c>
+      <c r="J15">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>71</v>
+      </c>
+      <c r="L15">
+        <v>0.493</v>
+      </c>
+      <c r="M15">
+        <v>14</v>
+      </c>
+      <c r="N15">
+        <v>30</v>
+      </c>
+      <c r="O15">
+        <v>0.467</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>23</v>
+      </c>
+      <c r="R15">
+        <v>0.87</v>
+      </c>
+      <c r="S15">
+        <v>9</v>
+      </c>
+      <c r="T15">
+        <v>33</v>
+      </c>
+      <c r="U15">
+        <v>42</v>
+      </c>
+      <c r="V15">
+        <v>26</v>
+      </c>
+      <c r="W15">
+        <v>7</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>27</v>
+      </c>
+      <c r="Z15">
+        <v>17</v>
+      </c>
+      <c r="AA15">
+        <v>104</v>
+      </c>
+      <c r="AB15">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" s="1">
+        <v>1070</v>
+      </c>
+      <c r="B16">
+        <v>1610612747</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16">
+        <v>240</v>
+      </c>
+      <c r="J16">
+        <v>52</v>
+      </c>
+      <c r="K16">
+        <v>96</v>
+      </c>
+      <c r="L16">
+        <v>0.542</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>32</v>
+      </c>
+      <c r="O16">
+        <v>0.313</v>
+      </c>
+      <c r="P16">
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>18</v>
+      </c>
+      <c r="R16">
+        <v>0.889</v>
+      </c>
+      <c r="S16">
+        <v>12</v>
+      </c>
+      <c r="T16">
+        <v>43</v>
+      </c>
+      <c r="U16">
+        <v>55</v>
+      </c>
+      <c r="V16">
+        <v>34</v>
+      </c>
+      <c r="W16">
+        <v>7</v>
+      </c>
+      <c r="X16">
+        <v>6</v>
+      </c>
+      <c r="Y16">
+        <v>16</v>
+      </c>
+      <c r="Z16">
+        <v>17</v>
+      </c>
+      <c r="AA16">
+        <v>130</v>
+      </c>
+      <c r="AB16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B17">
+        <v>1610612737</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17">
+        <v>240</v>
+      </c>
+      <c r="J17">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>101</v>
+      </c>
+      <c r="L17">
+        <v>0.475</v>
+      </c>
+      <c r="M17">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>38</v>
+      </c>
+      <c r="O17">
+        <v>0.289</v>
+      </c>
+      <c r="P17">
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <v>20</v>
+      </c>
+      <c r="R17">
+        <v>0.7</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>29</v>
+      </c>
+      <c r="U17">
+        <v>41</v>
+      </c>
+      <c r="V17">
+        <v>22</v>
+      </c>
+      <c r="W17">
+        <v>6</v>
+      </c>
+      <c r="X17">
+        <v>5</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>19</v>
+      </c>
+      <c r="AA17">
+        <v>121</v>
+      </c>
+      <c r="AB17">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" s="1">
+        <v>1072</v>
+      </c>
+      <c r="B18">
+        <v>1610612764</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18">
+        <v>240</v>
+      </c>
+      <c r="J18">
+        <v>42</v>
+      </c>
+      <c r="K18">
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>35</v>
+      </c>
+      <c r="O18">
+        <v>0.429</v>
+      </c>
+      <c r="P18">
+        <v>20</v>
+      </c>
+      <c r="Q18">
+        <v>25</v>
+      </c>
+      <c r="R18">
+        <v>0.8</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>49</v>
+      </c>
+      <c r="U18">
+        <v>53</v>
+      </c>
+      <c r="V18">
+        <v>33</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
+        <v>26</v>
+      </c>
+      <c r="Z18">
+        <v>18</v>
+      </c>
+      <c r="AA18">
+        <v>119</v>
+      </c>
+      <c r="AB18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" s="1">
+        <v>1073</v>
+      </c>
+      <c r="B19">
+        <v>1610612744</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19">
+        <v>240</v>
+      </c>
+      <c r="J19">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>91</v>
+      </c>
+      <c r="L19">
+        <v>0.462</v>
+      </c>
+      <c r="M19">
+        <v>17</v>
+      </c>
+      <c r="N19">
+        <v>43</v>
+      </c>
+      <c r="O19">
+        <v>0.395</v>
+      </c>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>21</v>
+      </c>
+      <c r="R19">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="S19">
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <v>29</v>
+      </c>
+      <c r="U19">
+        <v>46</v>
+      </c>
+      <c r="V19">
+        <v>29</v>
+      </c>
+      <c r="W19">
+        <v>9</v>
+      </c>
+      <c r="X19">
+        <v>2</v>
+      </c>
+      <c r="Y19">
+        <v>13</v>
+      </c>
+      <c r="Z19">
+        <v>22</v>
+      </c>
+      <c r="AA19">
+        <v>118</v>
+      </c>
+      <c r="AB19">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
